--- a/Lab02/Lab02.xlsx
+++ b/Lab02/Lab02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39f5b3aa77341a81/Рабочий стол/3 курс/2 сем/корнеева/лаб2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39f5b3aa77341a81/Документы/GitHub/ComputerSystems/Lab02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="11_AD4DF75460589B3ACB728443BFDD4EB25BDEDD9B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA6BCF4E-41C8-4AD6-8E82-AC54919A817A}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="11_AD4DF75460589B3ACB728443BFDD4EB25BDEDD9B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{077832C7-29A6-4189-8AB0-F30BA103F0A7}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1830" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2916,15 +2916,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>310963</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>568138</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2952,15 +2952,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>280709</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>113459</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>537884</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>189659</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3253,8 +3253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
